--- a/Lab07-03-Мулитиколлинеарность.xlsx
+++ b/Lab07-03-Мулитиколлинеарность.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Data-Analysis-Statistical-Methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD852D91-0F8B-406C-89C7-2DA271F6FF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E55603C-80A5-4FCF-B563-3A98BC025607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="589" xr2:uid="{A937963E-F74B-4CF6-9609-862358DBA964}"/>
   </bookViews>
@@ -341,14 +341,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -671,7 +671,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -897,12 +897,12 @@
         <f t="shared" si="0"/>
         <v>0.54422164238587722</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -1280,10 +1280,10 @@
         <f>TINV(1-I19, 40-1-1)</f>
         <v>1.6859544601667387</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="8">
         <f>J16</f>
         <v>0.10779919027064995</v>
       </c>
@@ -1318,10 +1318,10 @@
         <f>TINV(1-I20, 40-1-1)</f>
         <v>2.0243941639119702</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="8">
         <f>J16</f>
         <v>0.10779919027064995</v>
       </c>
@@ -1356,10 +1356,10 @@
         <f>TINV(1-I21, 40-1-1)</f>
         <v>2.711557601913082</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="8">
         <f>J16</f>
         <v>0.10779919027064995</v>
       </c>
@@ -1411,12 +1411,12 @@
         <f t="shared" si="0"/>
         <v>0.72071272073187165</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
@@ -1441,10 +1441,10 @@
         <f t="shared" si="0"/>
         <v>0.590050642653557</v>
       </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
